--- a/AL20v1_2024-04-12/Serial monitor baud 1200_slow.xlsx
+++ b/AL20v1_2024-04-12/Serial monitor baud 1200_slow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartin/Documents/MATLAB/GitHub/windtunnel/AL20v1_2024-04-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB953B-1317-C143-B0D3-A57FBBE886AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D98522-E461-1B4F-BE2D-8AF451D27D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{F1863565-4F15-D545-9057-A6D2D61D728D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{F1863565-4F15-D545-9057-A6D2D61D728D}"/>
   </bookViews>
   <sheets>
     <sheet name="Free stream" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <sheet name="U ~ 0.81 (inner slope)" sheetId="5" r:id="rId5"/>
     <sheet name="U ~ 0.88 (center peak)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'U ~ 0.7 (nadir)'!$A$2:$A$404</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'U ~ 0.7 (nadir)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'U ~ 0.7 (nadir)'!$B$2:$B$404</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'U ~ 0.7 (nadir)'!$A$2:$A$404</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'U ~ 0.7 (nadir)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'U ~ 0.7 (nadir)'!$B$2:$B$404</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="2424">
   <si>
     <t>11:42:30.319</t>
   </si>
@@ -15524,8 +15532,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -15551,1226 +15559,1239 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'U ~ 0.7 (nadir)'!$A$2:$A$404</c:f>
-              <c:strCache>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'U ~ 0.7 (nadir)'!$C$2:$C$404</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="403"/>
                 <c:pt idx="0">
-                  <c:v>12:11:10.360</c:v>
+                  <c:v>10.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12:11:10.394</c:v>
+                  <c:v>10.394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12:11:10.466</c:v>
+                  <c:v>10.465999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12:11:10.500</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12:11:10.536</c:v>
+                  <c:v>10.536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12:11:10.611</c:v>
+                  <c:v>10.611000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12:11:10.645</c:v>
+                  <c:v>10.645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12:11:10.679</c:v>
+                  <c:v>10.679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12:11:10.749</c:v>
+                  <c:v>10.749000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12:11:10.784</c:v>
+                  <c:v>10.784000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12:11:10.854</c:v>
+                  <c:v>10.853999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12:11:10.887</c:v>
+                  <c:v>10.887</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12:11:10.955</c:v>
+                  <c:v>10.955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12:11:10.993</c:v>
+                  <c:v>10.993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12:11:11.032</c:v>
+                  <c:v>11.032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12:11:11.099</c:v>
+                  <c:v>11.099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12:11:11.133</c:v>
+                  <c:v>11.132999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12:11:11.204</c:v>
+                  <c:v>11.204000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12:11:11.238</c:v>
+                  <c:v>11.238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12:11:11.309</c:v>
+                  <c:v>11.308999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12:11:11.344</c:v>
+                  <c:v>11.343999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12:11:11.381</c:v>
+                  <c:v>11.381</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12:11:11.452</c:v>
+                  <c:v>11.452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12:11:11.486</c:v>
+                  <c:v>11.486000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12:11:11.554</c:v>
+                  <c:v>11.554</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12:11:11.593</c:v>
+                  <c:v>11.593</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12:11:11.659</c:v>
+                  <c:v>11.659000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12:11:11.693</c:v>
+                  <c:v>11.693</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12:11:11.762</c:v>
+                  <c:v>11.762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12:11:11.796</c:v>
+                  <c:v>11.795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12:11:11.829</c:v>
+                  <c:v>11.829000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12:11:11.900</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12:11:11.934</c:v>
+                  <c:v>11.933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12:11:12.006</c:v>
+                  <c:v>12.006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12:11:12.042</c:v>
+                  <c:v>12.042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12:11:12.081</c:v>
+                  <c:v>12.081</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12:11:12.152</c:v>
+                  <c:v>12.151999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12:11:12.185</c:v>
+                  <c:v>12.185</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12:11:12.260</c:v>
+                  <c:v>12.26</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12:11:12.297</c:v>
+                  <c:v>12.297000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12:11:12.331</c:v>
+                  <c:v>12.331</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12:11:12.402</c:v>
+                  <c:v>12.401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12:11:12.438</c:v>
+                  <c:v>12.438000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12:11:12.510</c:v>
+                  <c:v>12.51</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12:11:12.544</c:v>
+                  <c:v>12.544</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12:11:12.616</c:v>
+                  <c:v>12.616</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12:11:12.653</c:v>
+                  <c:v>12.653</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12:11:12.690</c:v>
+                  <c:v>12.69</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12:11:12.759</c:v>
+                  <c:v>12.759</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12:11:12.793</c:v>
+                  <c:v>12.792999999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12:11:12.861</c:v>
+                  <c:v>12.861000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12:11:12.899</c:v>
+                  <c:v>12.898999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12:11:12.938</c:v>
+                  <c:v>12.938000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12:11:13.009</c:v>
+                  <c:v>13.009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12:11:13.045</c:v>
+                  <c:v>13.045</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12:11:13.080</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12:11:13.152</c:v>
+                  <c:v>13.151999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12:11:13.187</c:v>
+                  <c:v>13.186999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12:11:13.254</c:v>
+                  <c:v>13.254</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12:11:13.288</c:v>
+                  <c:v>13.288</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12:11:13.359</c:v>
+                  <c:v>13.359</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12:11:13.396</c:v>
+                  <c:v>13.396000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12:11:13.468</c:v>
+                  <c:v>13.468</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12:11:13.504</c:v>
+                  <c:v>13.504</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12:11:13.537</c:v>
+                  <c:v>13.537000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12:11:13.609</c:v>
+                  <c:v>13.609</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12:11:13.642</c:v>
+                  <c:v>13.641999999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12:11:13.709</c:v>
+                  <c:v>13.709</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12:11:13.747</c:v>
+                  <c:v>13.747</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12:11:13.785</c:v>
+                  <c:v>13.785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12:11:13.855</c:v>
+                  <c:v>13.855</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12:11:13.889</c:v>
+                  <c:v>13.888999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12:11:13.959</c:v>
+                  <c:v>13.959</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12:11:13.993</c:v>
+                  <c:v>13.993</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12:11:14.029</c:v>
+                  <c:v>14.029</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12:11:14.097</c:v>
+                  <c:v>14.097</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12:11:14.133</c:v>
+                  <c:v>14.132999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12:11:14.204</c:v>
+                  <c:v>14.204000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12:11:14.242</c:v>
+                  <c:v>14.242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12:11:14.313</c:v>
+                  <c:v>14.313000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12:11:14.348</c:v>
+                  <c:v>14.348000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12:11:14.382</c:v>
+                  <c:v>14.382</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12:11:14.453</c:v>
+                  <c:v>14.452999999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12:11:14.486</c:v>
+                  <c:v>14.486000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12:11:14.554</c:v>
+                  <c:v>14.554</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12:11:14.589</c:v>
+                  <c:v>14.589</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12:11:14.660</c:v>
+                  <c:v>14.66</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12:11:14.696</c:v>
+                  <c:v>14.696</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12:11:14.730</c:v>
+                  <c:v>14.73</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12:11:14.800</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12:11:14.838</c:v>
+                  <c:v>14.837999999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12:11:14.910</c:v>
+                  <c:v>14.91</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12:11:14.946</c:v>
+                  <c:v>14.946</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12:11:15.017</c:v>
+                  <c:v>15.016999999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12:11:15.053</c:v>
+                  <c:v>15.053000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12:11:15.087</c:v>
+                  <c:v>15.087</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12:11:15.159</c:v>
+                  <c:v>15.159000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>12:11:15.192</c:v>
+                  <c:v>15.192</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12:11:15.259</c:v>
+                  <c:v>15.259</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12:11:15.297</c:v>
+                  <c:v>15.297000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>12:11:15.331</c:v>
+                  <c:v>15.331</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12:11:15.399</c:v>
+                  <c:v>15.398999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>12:11:15.437</c:v>
+                  <c:v>15.436999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12:11:15.508</c:v>
+                  <c:v>15.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12:11:15.544</c:v>
+                  <c:v>15.544</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12:11:15.614</c:v>
+                  <c:v>15.614000000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12:11:15.653</c:v>
+                  <c:v>15.653</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>12:11:15.687</c:v>
+                  <c:v>15.686999999999999</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>12:11:15.757</c:v>
+                  <c:v>15.757</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>12:11:15.791</c:v>
+                  <c:v>15.791</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12:11:15.863</c:v>
+                  <c:v>15.863</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12:11:15.902</c:v>
+                  <c:v>15.901999999999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12:11:15.936</c:v>
+                  <c:v>15.936</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12:11:16.008</c:v>
+                  <c:v>16.007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12:11:16.042</c:v>
+                  <c:v>16.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12:11:16.109</c:v>
+                  <c:v>16.109000000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12:11:16.146</c:v>
+                  <c:v>16.146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>12:11:16.180</c:v>
+                  <c:v>16.18</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12:11:16.248</c:v>
+                  <c:v>16.248000000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>12:11:16.287</c:v>
+                  <c:v>16.286999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>12:11:16.355</c:v>
+                  <c:v>16.355</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>12:11:16.389</c:v>
+                  <c:v>16.388999999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>12:11:16.456</c:v>
+                  <c:v>16.456</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>12:11:16.490</c:v>
+                  <c:v>16.489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12:11:16.559</c:v>
+                  <c:v>16.559000000000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>12:11:16.593</c:v>
+                  <c:v>16.593</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>12:11:16.661</c:v>
+                  <c:v>16.661000000000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>12:11:16.698</c:v>
+                  <c:v>16.698</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>12:11:16.770</c:v>
+                  <c:v>16.77</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>12:11:16.805</c:v>
+                  <c:v>16.805</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>12:11:16.838</c:v>
+                  <c:v>16.838000000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>12:11:16.909</c:v>
+                  <c:v>16.908999999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12:11:16.944</c:v>
+                  <c:v>16.943999999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12:11:16.982</c:v>
+                  <c:v>16.981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12:11:17.053</c:v>
+                  <c:v>17.053000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12:11:17.086</c:v>
+                  <c:v>17.085999999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12:11:17.155</c:v>
+                  <c:v>17.155000000000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12:11:17.190</c:v>
+                  <c:v>17.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>12:11:17.264</c:v>
+                  <c:v>17.263999999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12:11:17.302</c:v>
+                  <c:v>17.302</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>12:11:17.336</c:v>
+                  <c:v>17.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12:11:17.408</c:v>
+                  <c:v>17.408000000000001</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12:11:17.442</c:v>
+                  <c:v>17.442</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>12:11:17.510</c:v>
+                  <c:v>17.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>12:11:17.543</c:v>
+                  <c:v>17.542999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>12:11:17.617</c:v>
+                  <c:v>17.617000000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>12:11:17.653</c:v>
+                  <c:v>17.652999999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>12:11:17.689</c:v>
+                  <c:v>17.689</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>12:11:17.761</c:v>
+                  <c:v>17.760999999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>12:11:17.797</c:v>
+                  <c:v>17.797000000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>12:11:17.835</c:v>
+                  <c:v>17.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>12:11:17.907</c:v>
+                  <c:v>17.907</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>12:11:17.941</c:v>
+                  <c:v>17.940999999999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>12:11:18.012</c:v>
+                  <c:v>18.012</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>12:11:18.045</c:v>
+                  <c:v>18.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>12:11:18.116</c:v>
+                  <c:v>18.116</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>12:11:18.153</c:v>
+                  <c:v>18.152999999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>12:11:18.186</c:v>
+                  <c:v>18.186</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>12:11:18.260</c:v>
+                  <c:v>18.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>12:11:18.297</c:v>
+                  <c:v>18.297000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>12:11:18.366</c:v>
+                  <c:v>18.366</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12:11:18.399</c:v>
+                  <c:v>18.399000000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>12:11:18.433</c:v>
+                  <c:v>18.433</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>12:11:18.505</c:v>
+                  <c:v>18.504999999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12:11:18.543</c:v>
+                  <c:v>18.542999999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12:11:18.616</c:v>
+                  <c:v>18.616</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>12:11:18.653</c:v>
+                  <c:v>18.652999999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>12:11:18.690</c:v>
+                  <c:v>18.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>12:11:18.759</c:v>
+                  <c:v>18.759</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>12:11:18.792</c:v>
+                  <c:v>18.792000000000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>12:11:18.860</c:v>
+                  <c:v>18.86</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>12:11:18.893</c:v>
+                  <c:v>18.893000000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>12:11:18.961</c:v>
+                  <c:v>18.960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>12:11:18.997</c:v>
+                  <c:v>18.997</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>12:11:19.067</c:v>
+                  <c:v>19.067</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>12:11:19.102</c:v>
+                  <c:v>19.102</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>12:11:19.140</c:v>
+                  <c:v>19.14</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>12:11:19.211</c:v>
+                  <c:v>19.210999999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>12:11:19.246</c:v>
+                  <c:v>19.245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>12:11:19.322</c:v>
+                  <c:v>19.321999999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>12:11:19.357</c:v>
+                  <c:v>19.356999999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>12:11:19.391</c:v>
+                  <c:v>19.390999999999998</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>12:11:19.460</c:v>
+                  <c:v>19.46</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>12:11:19.493</c:v>
+                  <c:v>19.492999999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>12:11:19.560</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>12:11:19.593</c:v>
+                  <c:v>19.593</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>12:11:19.661</c:v>
+                  <c:v>19.661000000000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>12:11:19.697</c:v>
+                  <c:v>19.696999999999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>12:11:19.772</c:v>
+                  <c:v>19.771999999999998</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>12:11:19.810</c:v>
+                  <c:v>19.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>12:11:19.844</c:v>
+                  <c:v>19.844000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>12:11:19.912</c:v>
+                  <c:v>19.911999999999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>12:11:19.950</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>12:11:20.022</c:v>
+                  <c:v>20.021999999999998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>12:11:20.057</c:v>
+                  <c:v>20.056999999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>12:11:20.092</c:v>
+                  <c:v>20.091999999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>12:11:20.160</c:v>
+                  <c:v>20.16</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>12:11:20.195</c:v>
+                  <c:v>20.195</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>12:11:20.267</c:v>
+                  <c:v>20.266999999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>12:11:20.305</c:v>
+                  <c:v>20.305</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12:11:20.340</c:v>
+                  <c:v>20.34</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>12:11:20.410</c:v>
+                  <c:v>20.41</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>12:11:20.443</c:v>
+                  <c:v>20.443000000000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>12:11:20.515</c:v>
+                  <c:v>20.515000000000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>12:11:20.549</c:v>
+                  <c:v>20.548999999999999</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>12:11:20.588</c:v>
+                  <c:v>20.588000000000001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>12:11:20.658</c:v>
+                  <c:v>20.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>12:11:20.693</c:v>
+                  <c:v>20.693000000000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>12:11:20.759</c:v>
+                  <c:v>20.759</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>12:11:20.794</c:v>
+                  <c:v>20.794</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>12:11:20.865</c:v>
+                  <c:v>20.864999999999998</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>12:11:20.901</c:v>
+                  <c:v>20.901</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>12:11:20.936</c:v>
+                  <c:v>20.936</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>12:11:21.006</c:v>
+                  <c:v>21.006</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>12:11:21.040</c:v>
+                  <c:v>21.04</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>12:11:21.107</c:v>
+                  <c:v>21.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>12:11:21.143</c:v>
+                  <c:v>21.143000000000001</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>12:11:21.211</c:v>
+                  <c:v>21.210999999999999</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>12:11:21.249</c:v>
+                  <c:v>21.248999999999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>12:11:21.288</c:v>
+                  <c:v>21.288</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12:11:21.356</c:v>
+                  <c:v>21.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12:11:21.390</c:v>
+                  <c:v>21.39</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12:11:21.458</c:v>
+                  <c:v>21.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12:11:21.491</c:v>
+                  <c:v>21.491</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>12:11:21.563</c:v>
+                  <c:v>21.562999999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>12:11:21.597</c:v>
+                  <c:v>21.597000000000001</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>12:11:21.667</c:v>
+                  <c:v>21.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>12:11:21.701</c:v>
+                  <c:v>21.701000000000001</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>12:11:21.735</c:v>
+                  <c:v>21.734999999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>12:11:21.807</c:v>
+                  <c:v>21.806999999999999</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>12:11:21.843</c:v>
+                  <c:v>21.843</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>12:11:21.917</c:v>
+                  <c:v>21.917000000000002</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>12:11:21.953</c:v>
+                  <c:v>21.952999999999999</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>12:11:21.990</c:v>
+                  <c:v>21.99</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>12:11:22.057</c:v>
+                  <c:v>22.056999999999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>12:11:22.091</c:v>
+                  <c:v>22.091000000000001</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>12:11:22.161</c:v>
+                  <c:v>22.161000000000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>12:11:22.199</c:v>
+                  <c:v>22.199000000000002</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>12:11:22.234</c:v>
+                  <c:v>22.234000000000002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>12:11:22.302</c:v>
+                  <c:v>22.302</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>12:11:22.336</c:v>
+                  <c:v>22.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>12:11:22.407</c:v>
+                  <c:v>22.407</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>12:11:22.441</c:v>
+                  <c:v>22.440999999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>12:11:22.509</c:v>
+                  <c:v>22.509</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>12:11:22.544</c:v>
+                  <c:v>22.544</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>12:11:22.610</c:v>
+                  <c:v>22.61</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>12:11:22.644</c:v>
+                  <c:v>22.643999999999998</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>12:11:22.711</c:v>
+                  <c:v>22.710999999999999</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>12:11:22.747</c:v>
+                  <c:v>22.747</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>12:11:22.818</c:v>
+                  <c:v>22.818000000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>12:11:22.852</c:v>
+                  <c:v>22.852</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>12:11:22.885</c:v>
+                  <c:v>22.885000000000002</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>12:11:22.957</c:v>
+                  <c:v>22.957000000000001</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>12:11:22.993</c:v>
+                  <c:v>22.992999999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>12:11:23.060</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>12:11:23.094</c:v>
+                  <c:v>23.094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>12:11:23.165</c:v>
+                  <c:v>23.164999999999999</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>12:11:23.201</c:v>
+                  <c:v>23.201000000000001</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>12:11:23.273</c:v>
+                  <c:v>23.273</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>12:11:23.311</c:v>
+                  <c:v>23.311</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>12:11:23.349</c:v>
+                  <c:v>23.349</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>12:11:23.384</c:v>
+                  <c:v>23.384</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>12:11:23.453</c:v>
+                  <c:v>23.452999999999999</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>12:11:23.487</c:v>
+                  <c:v>23.486999999999998</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>12:11:23.560</c:v>
+                  <c:v>23.56</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>12:11:23.594</c:v>
+                  <c:v>23.594000000000001</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>12:11:23.662</c:v>
+                  <c:v>23.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>12:11:23.696</c:v>
+                  <c:v>23.696000000000002</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>12:11:23.772</c:v>
+                  <c:v>23.771999999999998</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>12:11:23.805</c:v>
+                  <c:v>23.805</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>12:11:23.839</c:v>
+                  <c:v>23.838999999999999</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>12:11:23.909</c:v>
+                  <c:v>23.908999999999999</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>12:11:23.944</c:v>
+                  <c:v>23.943999999999999</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>12:11:24.020</c:v>
+                  <c:v>24.02</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>12:11:24.058</c:v>
+                  <c:v>24.058</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>12:11:24.091</c:v>
+                  <c:v>24.091000000000001</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>12:11:24.161</c:v>
+                  <c:v>24.161000000000001</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>12:11:24.195</c:v>
+                  <c:v>24.195</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>12:11:24.266</c:v>
+                  <c:v>24.265999999999998</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>12:11:24.299</c:v>
+                  <c:v>24.298999999999999</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>12:11:24.367</c:v>
+                  <c:v>24.367000000000001</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>12:11:24.404</c:v>
+                  <c:v>24.404</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>12:11:24.438</c:v>
+                  <c:v>24.437999999999999</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>12:11:24.510</c:v>
+                  <c:v>24.51</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>12:11:24.544</c:v>
+                  <c:v>24.544</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>12:11:24.611</c:v>
+                  <c:v>24.611000000000001</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>12:11:24.644</c:v>
+                  <c:v>24.643999999999998</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>12:11:24.712</c:v>
+                  <c:v>24.712</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>12:11:24.747</c:v>
+                  <c:v>24.747</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>12:11:24.818</c:v>
+                  <c:v>24.818000000000001</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>12:11:24.854</c:v>
+                  <c:v>24.853999999999999</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>12:11:24.889</c:v>
+                  <c:v>24.888999999999999</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>12:11:24.958</c:v>
+                  <c:v>24.957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>12:11:24.993</c:v>
+                  <c:v>24.992999999999999</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>12:11:25.063</c:v>
+                  <c:v>25.062999999999999</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>12:11:25.097</c:v>
+                  <c:v>25.097000000000001</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>12:11:25.168</c:v>
+                  <c:v>25.167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>12:11:25.202</c:v>
+                  <c:v>25.202000000000002</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>12:11:25.241</c:v>
+                  <c:v>25.241</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>12:11:25.312</c:v>
+                  <c:v>25.312000000000001</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>12:11:25.346</c:v>
+                  <c:v>25.346</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>12:11:25.418</c:v>
+                  <c:v>25.417999999999999</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>12:11:25.453</c:v>
+                  <c:v>25.452999999999999</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>12:11:25.491</c:v>
+                  <c:v>25.491</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>12:11:25.558</c:v>
+                  <c:v>25.558</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12:11:25.594</c:v>
+                  <c:v>25.594000000000001</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12:11:25.669</c:v>
+                  <c:v>25.669</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12:11:25.703</c:v>
+                  <c:v>25.702999999999999</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12:11:25.737</c:v>
+                  <c:v>25.736999999999998</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12:11:25.811</c:v>
+                  <c:v>25.811</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12:11:25.845</c:v>
+                  <c:v>25.844999999999999</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>12:11:25.919</c:v>
+                  <c:v>25.919</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>12:11:25.957</c:v>
+                  <c:v>25.957000000000001</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>12:11:25.991</c:v>
+                  <c:v>25.991</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>12:11:26.062</c:v>
+                  <c:v>26.062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>12:11:26.099</c:v>
+                  <c:v>26.099</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>12:11:26.167</c:v>
+                  <c:v>26.167000000000002</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>12:11:26.201</c:v>
+                  <c:v>26.201000000000001</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>12:11:26.272</c:v>
+                  <c:v>26.271999999999998</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>12:11:26.310</c:v>
+                  <c:v>26.31</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>12:11:26.344</c:v>
+                  <c:v>26.344000000000001</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>12:11:26.414</c:v>
+                  <c:v>26.414000000000001</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>12:11:26.452</c:v>
+                  <c:v>26.452000000000002</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>12:11:26.486</c:v>
+                  <c:v>26.486000000000001</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>12:11:26.554</c:v>
+                  <c:v>26.553999999999998</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>12:11:26.592</c:v>
+                  <c:v>26.591999999999999</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>12:11:26.662</c:v>
+                  <c:v>26.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>12:11:26.697</c:v>
+                  <c:v>26.696999999999999</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>12:11:26.763</c:v>
+                  <c:v>26.763000000000002</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>12:11:26.797</c:v>
+                  <c:v>26.797000000000001</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>12:11:26.871</c:v>
+                  <c:v>26.870999999999999</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>12:11:26.905</c:v>
+                  <c:v>26.905000000000001</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>12:11:26.943</c:v>
+                  <c:v>26.943000000000001</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>12:11:27.012</c:v>
+                  <c:v>27.012</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>12:11:27.045</c:v>
+                  <c:v>27.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>12:11:27.113</c:v>
+                  <c:v>27.113</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>12:11:27.149</c:v>
+                  <c:v>27.149000000000001</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>12:11:27.220</c:v>
+                  <c:v>27.22</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>12:11:27.254</c:v>
+                  <c:v>27.254000000000001</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>12:11:27.321</c:v>
+                  <c:v>27.321000000000002</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>12:11:27.359</c:v>
+                  <c:v>27.359000000000002</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>12:11:27.393</c:v>
+                  <c:v>27.393000000000001</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>12:11:27.461</c:v>
+                  <c:v>27.460999999999999</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>12:11:27.498</c:v>
+                  <c:v>27.498000000000001</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>12:11:27.568</c:v>
+                  <c:v>27.568000000000001</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>12:11:27.601</c:v>
+                  <c:v>27.600999999999999</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>12:11:27.671</c:v>
+                  <c:v>27.670999999999999</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>12:11:27.704</c:v>
+                  <c:v>27.704000000000001</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>12:11:27.775</c:v>
+                  <c:v>27.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>12:11:27.812</c:v>
+                  <c:v>27.812000000000001</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>12:11:27.846</c:v>
+                  <c:v>27.846</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>12:11:27.918</c:v>
+                  <c:v>27.917999999999999</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>12:11:27.953</c:v>
+                  <c:v>27.952999999999999</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>12:11:28.024</c:v>
+                  <c:v>28.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>12:11:28.058</c:v>
+                  <c:v>28.058</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>12:11:28.095</c:v>
+                  <c:v>28.094999999999999</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>12:11:28.170</c:v>
+                  <c:v>28.17</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>12:11:28.204</c:v>
+                  <c:v>28.204000000000001</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>12:11:28.276</c:v>
+                  <c:v>28.276</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>12:11:28.313</c:v>
+                  <c:v>28.312999999999999</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>12:11:28.347</c:v>
+                  <c:v>28.347000000000001</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>12:11:28.419</c:v>
+                  <c:v>28.419</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>12:11:28.453</c:v>
+                  <c:v>28.452999999999999</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>12:11:28.521</c:v>
+                  <c:v>28.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>12:11:28.556</c:v>
+                  <c:v>28.556000000000001</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>12:11:28.590</c:v>
+                  <c:v>28.59</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>12:11:28.662</c:v>
+                  <c:v>28.661999999999999</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>12:11:28.696</c:v>
+                  <c:v>28.696000000000002</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>12:11:28.771</c:v>
+                  <c:v>28.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>12:11:28.807</c:v>
+                  <c:v>28.806999999999999</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>12:11:28.841</c:v>
+                  <c:v>28.841000000000001</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>12:11:28.912</c:v>
+                  <c:v>28.911999999999999</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>12:11:28.945</c:v>
+                  <c:v>28.945</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>12:11:29.011</c:v>
+                  <c:v>29.010999999999999</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>12:11:29.045</c:v>
+                  <c:v>29.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>12:11:29.111</c:v>
+                  <c:v>29.111000000000001</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>12:11:29.148</c:v>
+                  <c:v>29.148</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>12:11:29.219</c:v>
+                  <c:v>29.219000000000001</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>12:11:29.252</c:v>
+                  <c:v>29.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>12:11:29.288</c:v>
+                  <c:v>29.288</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>12:11:29.354</c:v>
+                  <c:v>29.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>12:11:29.422</c:v>
+                  <c:v>29.422000000000001</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>12:11:29.455</c:v>
+                  <c:v>29.454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>12:11:29.493</c:v>
+                  <c:v>29.492999999999999</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>12:11:29.561</c:v>
+                  <c:v>29.561</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>12:11:29.595</c:v>
+                  <c:v>29.594999999999999</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>12:11:29.661</c:v>
+                  <c:v>29.661000000000001</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>12:11:29.694</c:v>
+                  <c:v>29.693999999999999</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>12:11:29.761</c:v>
+                  <c:v>29.760999999999999</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>12:11:29.798</c:v>
+                  <c:v>29.797999999999998</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>12:11:29.872</c:v>
+                  <c:v>29.872</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>12:11:29.906</c:v>
+                  <c:v>29.905999999999999</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>12:11:29.939</c:v>
+                  <c:v>29.939</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>12:11:30.007</c:v>
+                  <c:v>30.007000000000001</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>12:11:30.073</c:v>
+                  <c:v>30.073</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>12:11:30.112</c:v>
+                  <c:v>30.111999999999998</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>12:11:30.149</c:v>
+                  <c:v>30.149000000000001</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>12:11:30.220</c:v>
+                  <c:v>30.22</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>12:11:30.255</c:v>
+                  <c:v>30.254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>12:11:30.323</c:v>
+                  <c:v>30.323</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>12:11:30.356</c:v>
+                  <c:v>30.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>12:11:30.394</c:v>
+                  <c:v>30.393999999999998</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>12:11:30.467</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>30.466999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'U ~ 0.7 (nadir)'!$B$2:$B$404</c:f>
               <c:numCache>
@@ -17987,7 +18008,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -18003,14 +18024,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="502293648"/>
         <c:axId val="497354048"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="502293648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18053,11 +18074,8 @@
         </c:txPr>
         <c:crossAx val="497354048"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="497354048"/>
         <c:scaling>
@@ -18112,7 +18130,7 @@
         </c:txPr>
         <c:crossAx val="502293648"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -27007,16 +27025,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37258,10 +37276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBF946D-D396-5244-82E8-44B789B50EBE}">
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B404" sqref="A1:B404"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37269,3236 +37287,4851 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>411</v>
       </c>
       <c r="B1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="B2">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>_xlfn.NUMBERVALUE(MID(A2,7,6))</f>
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="B3">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">_xlfn.NUMBERVALUE(MID(A3,7,6))</f>
+        <v>10.394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="B4">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>10.465999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="B5">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="B6">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10.536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="B7">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>10.611000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="B8">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10.645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="B9">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10.679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="B10">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>10.749000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="B11">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10.784000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="B12">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>10.853999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="B13">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>10.887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="B14">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10.955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="B15">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10.993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="B16">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>11.032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="B17">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>11.099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="B18">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>11.132999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1232</v>
       </c>
       <c r="B19">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>11.204000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="B20">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>11.238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B21">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>11.308999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="B22">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>11.343999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="B23">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>11.381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="B24">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>11.452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="B25">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>11.486000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="B26">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>11.554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="B27">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>11.593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="B28">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>11.659000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="B29">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>11.693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="B30">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>11.762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1244</v>
       </c>
       <c r="B31">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>11.795999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="B32">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>11.829000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="B33">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="B34">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>11.933999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="B35">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>12.006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="B36">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>12.042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="B37">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>12.081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="B38">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>12.151999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="B39">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>12.185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="B40">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="B41">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>12.297000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="B42">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>12.331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="B43">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>12.401999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="B44">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>12.438000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="B45">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="B46">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>12.544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="B47">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>12.616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="B48">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>12.653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="B49">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="B50">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>12.759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="B51">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>12.792999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="B52">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>12.861000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="B53">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>12.898999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="B54">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>12.938000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B55">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>13.009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B56">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>13.045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="B57">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="B58">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>13.151999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="B59">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>13.186999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="B60">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>13.254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="B61">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>13.288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="B62">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>13.359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="B63">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>13.396000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="B64">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>13.468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="B65">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>13.504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="B66">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>13.537000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="B67">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">_xlfn.NUMBERVALUE(MID(A67,7,6))</f>
+        <v>13.609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="B68">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>13.641999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="B69">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>13.709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="B70">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>13.747</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="B71">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>13.785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="B72">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>13.855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="B73">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>13.888999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="B74">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>13.959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="B75">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>13.993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="B76">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>14.029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="B77">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>14.097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="B78">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>14.132999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="B79">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>14.204000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="B80">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>14.242000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="B81">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>14.313000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="B82">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>14.348000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="B83">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>14.382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="B84">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>14.452999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="B85">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>14.486000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="B86">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>14.554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="B87">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>14.589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="B88">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="B89">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>14.696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="B90">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="B91">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B92">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>14.837999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B93">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="B94">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>14.946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="B95">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>15.016999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="B96">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>15.053000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1310</v>
       </c>
       <c r="B97">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>15.087</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="B98">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>15.159000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="B99">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>15.192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="B100">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>15.259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="B101">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>15.297000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="B102">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>15.331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="B103">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>15.398999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="B104">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>15.436999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1318</v>
       </c>
       <c r="B105">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>15.507999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="B106">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>15.544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="B107">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>15.614000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="B108">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>15.653</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>1322</v>
       </c>
       <c r="B109">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>15.686999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="B110">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>15.757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="B111">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>15.791</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>1325</v>
       </c>
       <c r="B112">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>15.863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="B113">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>15.901999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="B114">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>15.936</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="B115">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>16.007999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="B116">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>16.042000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="B117">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>16.109000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="B118">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>16.146000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="B119">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="B120">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>16.248000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="B121">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>16.286999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="B122">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>16.355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="B123">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>16.388999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>1337</v>
       </c>
       <c r="B124">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>16.456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="B125">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1339</v>
       </c>
       <c r="B126">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>16.559000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="B127">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>16.593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="B128">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>16.661000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>1342</v>
       </c>
       <c r="B129">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>16.698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="B130">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="B131">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="2">_xlfn.NUMBERVALUE(MID(A131,7,6))</f>
+        <v>16.805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="B132">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>16.838000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1346</v>
       </c>
       <c r="B133">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>16.908999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="B134">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>16.943999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="B135">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>16.981999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="B136">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>17.053000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="B137">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>17.085999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="B138">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>17.155000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="B139">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="B140">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>17.263999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="B141">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>17.302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="B142">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>17.335999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1356</v>
       </c>
       <c r="B143">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>17.408000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="B144">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>17.442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="B145">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="B146">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>17.542999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="B147">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>17.617000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1361</v>
       </c>
       <c r="B148">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>17.652999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="B149">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>17.689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="B150">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>17.760999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="B151">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>17.797000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="B152">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>17.835000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B153">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>17.907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="B154">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>17.940999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="B155">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>18.012</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="B156">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>18.045000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1370</v>
       </c>
       <c r="B157">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>18.116</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="B158">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>18.152999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="B159">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>18.186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="B160">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="B161">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>18.297000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="B162">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>18.366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="B163">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>18.399000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1377</v>
       </c>
       <c r="B164">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>18.433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="B165">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>18.504999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1379</v>
       </c>
       <c r="B166">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>18.542999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="B167">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>18.616</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1381</v>
       </c>
       <c r="B168">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>18.652999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="B169">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="B170">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>18.759</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="B171">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>18.792000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="B172">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="B173">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>18.893000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1387</v>
       </c>
       <c r="B174">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>18.960999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="B175">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>18.997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1389</v>
       </c>
       <c r="B176">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>19.067</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="B177">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>19.102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1391</v>
       </c>
       <c r="B178">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="B179">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>19.210999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="B180">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>19.245999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1394</v>
       </c>
       <c r="B181">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>19.321999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1395</v>
       </c>
       <c r="B182">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>19.356999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="B183">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>19.390999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="B184">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="B185">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>19.492999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="B186">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="B187">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>19.593</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1401</v>
       </c>
       <c r="B188">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>19.661000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="B189">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>19.696999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="B190">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>19.771999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>1404</v>
       </c>
       <c r="B191">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="B192">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>19.844000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="B193">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>19.911999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="B194">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="B195">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="3">_xlfn.NUMBERVALUE(MID(A195,7,6))</f>
+        <v>20.021999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="B196">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>20.056999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="B197">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>20.091999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="B198">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="B199">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>20.195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>1413</v>
       </c>
       <c r="B200">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>20.266999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="B201">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>20.305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="B202">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="B203">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="B204">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>20.443000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>1418</v>
       </c>
       <c r="B205">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>20.515000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="B206">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>20.548999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="B207">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>20.588000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="B208">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>20.658000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="B209">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>20.693000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="B210">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>20.759</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="B211">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>20.794</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="B212">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>20.864999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="B213">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>20.901</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="B214">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>20.936</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="B215">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>21.006</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="B216">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="B217">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>21.106999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="B218">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>21.143000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="B219">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>21.210999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="B220">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>21.248999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="B221">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>21.288</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="B222">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>21.356000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="B223">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="B224">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>21.457999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="B225">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>21.491</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="B226">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>21.562999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="B227">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>21.597000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="B228">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>21.667000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="B229">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>21.701000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1443</v>
       </c>
       <c r="B230">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>21.734999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="B231">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>21.806999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="B232">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>21.843</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="B233">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>21.917000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="B234">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>21.952999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>1448</v>
       </c>
       <c r="B235">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="B236">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>22.056999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="B237">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>22.091000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="B238">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>22.161000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="B239">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>22.199000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="B240">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>22.234000000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="B241">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>22.302</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="B242">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>22.335999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="B243">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>22.407</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="B244">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>22.440999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="B245">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>22.509</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="B246">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>22.544</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="B247">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1461</v>
       </c>
       <c r="B248">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>22.643999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="B249">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>22.710999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1463</v>
       </c>
       <c r="B250">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>22.747</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1464</v>
       </c>
       <c r="B251">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>22.818000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="B252">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>22.852</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="B253">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>22.885000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="B254">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>22.957000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="B255">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>22.992999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="B256">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1470</v>
       </c>
       <c r="B257">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>23.094000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="B258">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>23.164999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1472</v>
       </c>
       <c r="B259">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="4">_xlfn.NUMBERVALUE(MID(A259,7,6))</f>
+        <v>23.201000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="B260">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>23.273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="B261">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>23.311</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1475</v>
       </c>
       <c r="B262">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>23.349</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1476</v>
       </c>
       <c r="B263">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>23.384</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="B264">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>23.452999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1478</v>
       </c>
       <c r="B265">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>23.486999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1479</v>
       </c>
       <c r="B266">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="B267">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>23.594000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="B268">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>23.661999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="B269">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>23.696000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1483</v>
       </c>
       <c r="B270">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>23.771999999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="B271">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>23.805</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="B272">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>23.838999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="B273">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>23.908999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="B274">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>23.943999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="B275">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="B276">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>24.058</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1490</v>
       </c>
       <c r="B277">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>24.091000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="B278">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>24.161000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="B279">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>24.195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="B280">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>24.265999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1494</v>
       </c>
       <c r="B281">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>24.298999999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1495</v>
       </c>
       <c r="B282">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>24.367000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1496</v>
       </c>
       <c r="B283">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>24.404</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1497</v>
       </c>
       <c r="B284">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>24.437999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="B285">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1499</v>
       </c>
       <c r="B286">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>24.544</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="B287">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>24.611000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1501</v>
       </c>
       <c r="B288">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>24.643999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="B289">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>24.712</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="B290">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>24.747</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="B291">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>24.818000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1505</v>
       </c>
       <c r="B292">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>24.853999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="B293">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>24.888999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1507</v>
       </c>
       <c r="B294">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>24.957999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="B295">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>24.992999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="B296">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>25.062999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="B297">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>25.097000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="B298">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>25.167999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="B299">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>25.202000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="B300">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>25.241</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1514</v>
       </c>
       <c r="B301">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>25.312000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1515</v>
       </c>
       <c r="B302">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>25.346</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="B303">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>25.417999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="B304">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>25.452999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="B305">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>25.491</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="B306">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>25.558</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="B307">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>25.594000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="B308">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>25.669</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="B309">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>25.702999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>1523</v>
       </c>
       <c r="B310">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>25.736999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="B311">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>25.811</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="B312">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>25.844999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="B313">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>25.919</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>1527</v>
       </c>
       <c r="B314">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>25.957000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="B315">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>25.991</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>1529</v>
       </c>
       <c r="B316">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>26.062000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="B317">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>26.099</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="B318">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>26.167000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="B319">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>26.201000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="B320">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>26.271999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="B321">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="B322">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>26.344000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="B323">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323">
+        <f t="shared" ref="C323:C386" si="5">_xlfn.NUMBERVALUE(MID(A323,7,6))</f>
+        <v>26.414000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="B324">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324">
+        <f t="shared" si="5"/>
+        <v>26.452000000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="B325">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>26.486000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="B326">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>26.553999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="B327">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>26.591999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="B328">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>26.661999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="B329">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>26.696999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="B330">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>26.763000000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="B331">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>26.797000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="B332">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>26.870999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="B333">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>26.905000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="B334">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>26.943000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="B335">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>27.012</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="B336">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>27.045000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="B337">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>27.113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="B338">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>27.149000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1552</v>
       </c>
       <c r="B339">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="B340">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>27.254000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="B341">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>27.321000000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1555</v>
       </c>
       <c r="B342">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>27.359000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="B343">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>27.393000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="B344">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>27.460999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="B345">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>27.498000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="B346">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>27.568000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="B347">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>27.600999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="B348">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>27.670999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="B349">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>27.704000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="B350">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>27.774999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="B351">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>27.812000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="B352">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>27.846</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="B353">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>27.917999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1567</v>
       </c>
       <c r="B354">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>27.952999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="B355">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>28.024000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="B356">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>28.058</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="B357">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>28.094999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1571</v>
       </c>
       <c r="B358">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="B359">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>28.204000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="B360">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>28.276</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="B361">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>28.312999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="B362">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>28.347000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B363">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>28.419</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B364">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>28.452999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="B365">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>28.521000000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1579</v>
       </c>
       <c r="B366">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>28.556000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="B367">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="B368">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>28.661999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="B369">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>28.696000000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="B370">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>28.771000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="B371">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>28.806999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="B372">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>28.841000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="B373">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>28.911999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="B374">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>28.945</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="B375">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>29.010999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="B376">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>29.045000000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="B377">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>29.111000000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="B378">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>29.148</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="B379">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>29.219000000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="B380">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>29.251999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="B381">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>29.288</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="B382">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>29.353999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1596</v>
       </c>
       <c r="B383">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>29.422000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="B384">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>29.454999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="B385">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>29.492999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="B386">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>29.561</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="B387">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387">
+        <f t="shared" ref="C387:C404" si="6">_xlfn.NUMBERVALUE(MID(A387,7,6))</f>
+        <v>29.594999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="B388">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388">
+        <f t="shared" si="6"/>
+        <v>29.661000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="B389">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>29.693999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="B390">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>29.760999999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="B391">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>29.797999999999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="B392">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>29.872</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B393">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>29.905999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B394">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>29.939</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B395">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>30.007000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B396">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>30.073</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B397">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>30.111999999999998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B398">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>30.149000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B399">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B400">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>30.254999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B401">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>30.323</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B402">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402">
+        <f t="shared" si="6"/>
+        <v>30.356000000000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B403">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403">
+        <f t="shared" si="6"/>
+        <v>30.393999999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="B404">
         <v>2.35</v>
+      </c>
+      <c r="C404">
+        <f t="shared" si="6"/>
+        <v>30.466999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -43757,7 +45390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC66D22-995C-1842-A6C9-948922A10E59}">
   <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B405" sqref="A1:B405"/>
     </sheetView>
   </sheetViews>
